--- a/linksTestResultsGroundTruth.xlsx
+++ b/linksTestResultsGroundTruth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ApplyingForJob\Upwork\LoomVideoClassifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3877FFF1-B2AB-48BC-8528-34CA79EE519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC99DE-D03E-4F82-8272-2E41A97D0DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="252">
   <si>
     <t>video</t>
   </si>
@@ -752,6 +752,30 @@
   </si>
   <si>
     <t>https://www.loom.com/share/c5de896d5e7e4ee09d9fb3ff53ece0ff</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/696b230217ad4c6fb16fcf290d00491d</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/6c2073c0491f4049b44d0e37f7f54788</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/ffa499b8ee5b4c529ca6f143010580ff</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/3787694c2194486e8ffed55367620af4</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/462bae5adb3d470cb5e9b69c74d51669</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/41ddeb3f7e194bf896c46f0f8fef2f93</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/c0f8b6d765554bd380fd14098a26f362</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/e4ce4c7267c04838b176cdbf34206798</t>
   </si>
 </sst>
 </file>
@@ -820,13 +844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1363,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1380,7 +1403,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1413,7 +1436,7 @@
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1586,7 +1609,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1616,7 +1639,7 @@
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1641,7 +1664,7 @@
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1846,7 +1869,7 @@
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1856,7 +1879,7 @@
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2061,7 +2084,7 @@
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2071,7 +2094,7 @@
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2131,12 +2154,12 @@
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2146,7 +2169,7 @@
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2156,7 +2179,7 @@
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2171,7 +2194,7 @@
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2286,7 +2309,7 @@
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="A223" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2346,7 +2369,7 @@
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2448,6 +2471,51 @@
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
